--- a/teaching/traditional_assets/database/data/denmark/denmark_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_insurance_general.xlsx
@@ -591,49 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.111</v>
+        <v>0.0793</v>
       </c>
       <c r="E2">
-        <v>-0.0178</v>
-      </c>
-      <c r="F2">
-        <v>-0.01</v>
+        <v>-0.0332</v>
       </c>
       <c r="G2">
-        <v>0.06404193360512521</v>
+        <v>0.08899777790439291</v>
       </c>
       <c r="H2">
-        <v>0.06404193360512521</v>
+        <v>0.08899777790439291</v>
       </c>
       <c r="I2">
-        <v>0.2436109493302271</v>
+        <v>0.0611930944105749</v>
       </c>
       <c r="J2">
-        <v>0.1896010799438357</v>
+        <v>0.0473104819472803</v>
       </c>
       <c r="K2">
-        <v>200.8</v>
+        <v>155.4</v>
       </c>
       <c r="L2">
-        <v>0.04677926616191031</v>
+        <v>0.04427098171044385</v>
       </c>
       <c r="M2">
-        <v>189.8</v>
+        <v>116.9</v>
       </c>
       <c r="N2">
-        <v>0.04430232015312077</v>
+        <v>0.03085409628378378</v>
       </c>
       <c r="O2">
-        <v>0.9452191235059761</v>
+        <v>0.7522522522522522</v>
       </c>
       <c r="P2">
-        <v>189.8</v>
+        <v>116.9</v>
       </c>
       <c r="Q2">
-        <v>0.04430232015312077</v>
+        <v>0.03085409628378378</v>
       </c>
       <c r="R2">
-        <v>0.9452191235059761</v>
+        <v>0.7522522522522522</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>345.1</v>
+        <v>550.4</v>
       </c>
       <c r="V2">
-        <v>0.08055179496755521</v>
+        <v>0.1452702702702703</v>
       </c>
       <c r="W2">
-        <v>0.224432770761149</v>
+        <v>0.1790116346043083</v>
       </c>
       <c r="X2">
-        <v>0.04885483567509526</v>
+        <v>0.04315583832409947</v>
       </c>
       <c r="Y2">
-        <v>0.1755779350860537</v>
+        <v>0.1358557962802088</v>
       </c>
       <c r="Z2">
-        <v>24.169481981982</v>
+        <v>3.990677580718508</v>
       </c>
       <c r="AA2">
-        <v>4.582559885466865</v>
+        <v>0.1888008796399992</v>
       </c>
       <c r="AB2">
-        <v>0.04679099737097981</v>
+        <v>0.04037935754891815</v>
       </c>
       <c r="AC2">
-        <v>4.535768888095885</v>
+        <v>0.148421522091081</v>
       </c>
       <c r="AD2">
-        <v>356.6</v>
+        <v>414.1</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>356.6</v>
+        <v>414.1</v>
       </c>
       <c r="AG2">
-        <v>11.5</v>
+        <v>-136.3</v>
       </c>
       <c r="AH2">
-        <v>0.07684019996552319</v>
+        <v>0.09852720740441123</v>
       </c>
       <c r="AI2">
-        <v>0.2911733485751613</v>
+        <v>0.2943978387601309</v>
       </c>
       <c r="AJ2">
-        <v>0.002677095700351515</v>
+        <v>-0.03731690622861053</v>
       </c>
       <c r="AK2">
-        <v>0.01307412460209186</v>
+        <v>-0.1591917776220509</v>
       </c>
       <c r="AL2">
-        <v>11</v>
+        <v>15.9</v>
       </c>
       <c r="AM2">
-        <v>11</v>
+        <v>15.9</v>
       </c>
       <c r="AN2">
-        <v>0.339554370596077</v>
+        <v>1.881417537482962</v>
       </c>
       <c r="AO2">
-        <v>95.06363636363636</v>
+        <v>13.50943396226415</v>
       </c>
       <c r="AP2">
-        <v>0.01095029518187012</v>
+        <v>-0.6192639709223079</v>
       </c>
       <c r="AQ2">
-        <v>95.06363636363636</v>
+        <v>13.50943396226415</v>
       </c>
     </row>
     <row r="3">
@@ -728,49 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.111</v>
+        <v>0.0793</v>
       </c>
       <c r="E3">
-        <v>-0.0178</v>
-      </c>
-      <c r="F3">
-        <v>-0.01</v>
+        <v>-0.0332</v>
       </c>
       <c r="G3">
-        <v>0.06404193360512521</v>
+        <v>0.08899777790439291</v>
       </c>
       <c r="H3">
-        <v>0.06404193360512521</v>
+        <v>0.08899777790439291</v>
       </c>
       <c r="I3">
-        <v>0.2436109493302271</v>
+        <v>0.0611930944105749</v>
       </c>
       <c r="J3">
-        <v>0.1896010799438357</v>
+        <v>0.0473104819472803</v>
       </c>
       <c r="K3">
-        <v>200.8</v>
+        <v>155.4</v>
       </c>
       <c r="L3">
-        <v>0.04677926616191031</v>
+        <v>0.04427098171044385</v>
       </c>
       <c r="M3">
-        <v>189.8</v>
+        <v>116.9</v>
       </c>
       <c r="N3">
-        <v>0.04430232015312077</v>
+        <v>0.03085409628378378</v>
       </c>
       <c r="O3">
-        <v>0.9452191235059761</v>
+        <v>0.7522522522522522</v>
       </c>
       <c r="P3">
-        <v>189.8</v>
+        <v>116.9</v>
       </c>
       <c r="Q3">
-        <v>0.04430232015312077</v>
+        <v>0.03085409628378378</v>
       </c>
       <c r="R3">
-        <v>0.9452191235059761</v>
+        <v>0.7522522522522522</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>345.1</v>
+        <v>550.4</v>
       </c>
       <c r="V3">
-        <v>0.08055179496755521</v>
+        <v>0.1452702702702703</v>
       </c>
       <c r="W3">
-        <v>0.224432770761149</v>
+        <v>0.1790116346043083</v>
       </c>
       <c r="X3">
-        <v>0.04885483567509526</v>
+        <v>0.04315583832409947</v>
       </c>
       <c r="Y3">
-        <v>0.1755779350860537</v>
+        <v>0.1358557962802088</v>
       </c>
       <c r="Z3">
-        <v>24.169481981982</v>
+        <v>3.990677580718508</v>
       </c>
       <c r="AA3">
-        <v>4.582559885466865</v>
+        <v>0.1888008796399992</v>
       </c>
       <c r="AB3">
-        <v>0.04679099737097981</v>
+        <v>0.04037935754891815</v>
       </c>
       <c r="AC3">
-        <v>4.535768888095885</v>
+        <v>0.148421522091081</v>
       </c>
       <c r="AD3">
-        <v>356.6</v>
+        <v>414.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>356.6</v>
+        <v>414.1</v>
       </c>
       <c r="AG3">
-        <v>11.5</v>
+        <v>-136.3</v>
       </c>
       <c r="AH3">
-        <v>0.07684019996552319</v>
+        <v>0.09852720740441123</v>
       </c>
       <c r="AI3">
-        <v>0.2911733485751613</v>
+        <v>0.2943978387601309</v>
       </c>
       <c r="AJ3">
-        <v>0.002677095700351515</v>
+        <v>-0.03731690622861053</v>
       </c>
       <c r="AK3">
-        <v>0.01307412460209186</v>
+        <v>-0.1591917776220509</v>
       </c>
       <c r="AL3">
-        <v>11</v>
+        <v>15.9</v>
       </c>
       <c r="AM3">
-        <v>11</v>
+        <v>15.9</v>
       </c>
       <c r="AN3">
-        <v>0.339554370596077</v>
+        <v>1.881417537482962</v>
       </c>
       <c r="AO3">
-        <v>95.06363636363636</v>
+        <v>13.50943396226415</v>
       </c>
       <c r="AP3">
-        <v>0.01095029518187012</v>
+        <v>-0.6192639709223079</v>
       </c>
       <c r="AQ3">
-        <v>95.06363636363636</v>
+        <v>13.50943396226415</v>
       </c>
     </row>
   </sheetData>
